--- a/7_quantitative_and_statistical_analysis_and_modeling/aula1/Modulo 7 – Sessão 1 -  Respostas Questões.xlsx
+++ b/7_quantitative_and_statistical_analysis_and_modeling/aula1/Modulo 7 – Sessão 1 -  Respostas Questões.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoal\Familia\Eu\ENI\EDIT\202501 Data Science\MÓDULO 7 - QUANTITATIVE STATISTICAL ANALYSIS AND MODELING\AULA 1\Questionário\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clasquinsa-my.sharepoint.com/personal/andreia_campos_clasquin_com/Documents/Desktop/new/datascience_course/7_quantitative_and_statistical_analysis_and_modeling/aula1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0BC50-CA59-4058-87A0-3A480336C51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{A4B0BC50-CA59-4058-87A0-3A480336C51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B910E21C-0C4D-4958-9C17-FD3B588C9700}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>QUESTIONÁRIO INDIVIDUAL</t>
   </si>
@@ -95,12 +95,205 @@
      Que cuidado deveriam ser tidos na definição da amostra
      Que características te pareceriam interessantes recolher para melhor compreender o que influencia a intenção de voto dos eleitores</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>1. Variável de interesse:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+              A variável de interesse é a intenção de voto dos eleitores.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>2. População:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+             A população é composta por todas as pessoas com mais de 18 anos (idade mínima para votar).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">3. Cuidados na definição da amostra:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">            A amostra deve ser uma amostra estratificada para garantir que todos os subgrupos da população estão representados proporcionalmente.
+            Devemos garantir que a amostra representa a população em termos de escolaridade, idade e género.
+            É importante assegurar que a amostra é suficientemente grande para ser representativa e reduzir o erro amostral.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">4. Características a recolher:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Escolaridade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: Nível de educação pode influenciar a intenção de voto.
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Localidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: A região onde o eleitor reside pode afetar suas preferências políticas.
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Idade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: Diferentes faixas etárias podem ter diferentes intenções de voto.
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Género</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: Pode haver diferenças nas intenções de voto entre homens e mulheres.
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Rendimento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: O nível de rendimento pode influenciar as preferências políticas.
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Ocupação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: A profissão ou situação de emprego pode afetar a intenção de voto.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Andreia Filipa Araújo Campos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +323,12 @@
       <color rgb="FF00B0F0"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -409,15 +608,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -438,6 +628,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,30 +975,31 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.88671875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.85546875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="142.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -807,19 +1007,19 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="24" t="s">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -834,7 +1034,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -844,10 +1044,12 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -855,12 +1057,14 @@
         <v>11</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -870,10 +1074,12 @@
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -881,12 +1087,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -895,24 +1105,28 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>7</v>
       </c>
@@ -921,28 +1135,34 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="327.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
